--- a/juas.xlsx
+++ b/juas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpnav\OneDrive\Documentos\GitHub\prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DAFCBE3-E590-420D-B0E3-DC3099553558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7734C490-8FA5-4EDE-9CDC-FF2AC673BDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9176BB42-554D-4178-80DB-A489C7583FA6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>pepito</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>viernes</t>
+  </si>
+  <si>
+    <t>dia</t>
+  </si>
+  <si>
+    <t>nombre</t>
   </si>
 </sst>
 </file>
@@ -412,51 +418,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E5F5DA-D25E-4115-960D-8B1B50B43D90}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
